--- a/backend/src/excel_handler/files/CAPX.xlsx
+++ b/backend/src/excel_handler/files/CAPX.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>30-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>423972.62</v>
+        <v>654816.4399999999</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>70662.10000000001</v>
+        <v>59528.77</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92632.31</v>
+        <v>92545.92</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50831.75</v>
+        <v>51131.68</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>167946.41</v>
+        <v>184855.48</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>76402.16</v>
+        <v>96457.50999999999</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3976.99</v>
+        <v>808.17</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +517,57 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>32183</v>
+        <v>49892.16</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Gainvest</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>41763.13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Delta acciones</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>22951.52</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Delta Recursos</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>63002.76</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Delta Select</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>41666.63</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Delta gestion V</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9741.48</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CAPX.xlsx
+++ b/backend/src/excel_handler/files/CAPX.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,135 +439,179 @@
           <t>30-12-2022</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>654816.4399999999</v>
+        <v>49892.16</v>
+      </c>
+      <c r="C2" t="n">
+        <v>49975.45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>59528.77</v>
+        <v>92545.92</v>
+      </c>
+      <c r="C3" t="n">
+        <v>92655.67999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92545.92</v>
+        <v>51131.68</v>
+      </c>
+      <c r="C4" t="n">
+        <v>50825.22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Delta Recursos</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>51131.68</v>
+        <v>63002.76</v>
+      </c>
+      <c r="C5" t="n">
+        <v>63076.57</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>184855.48</v>
+        <v>41666.63</v>
+      </c>
+      <c r="C6" t="n">
+        <v>42184.27</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Delta acciones</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>96457.50999999999</v>
+        <v>22951.52</v>
+      </c>
+      <c r="C7" t="n">
+        <v>22975.88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>808.17</v>
+        <v>9741.48</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9677.809999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>49892.16</v>
+        <v>184855.48</v>
+      </c>
+      <c r="C9" t="n">
+        <v>181878.46</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Gainvest</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41763.13</v>
+        <v>96457.50999999999</v>
+      </c>
+      <c r="C10" t="n">
+        <v>96412.03</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Delta acciones</t>
+          <t>Gainvest</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>22951.52</v>
+        <v>41763.13</v>
+      </c>
+      <c r="C11" t="n">
+        <v>38574.04</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>63002.76</v>
+        <v>808.17</v>
+      </c>
+      <c r="C12" t="n">
+        <v>901.3099999999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41666.63</v>
+        <v>59528.77</v>
+      </c>
+      <c r="C13" t="n">
+        <v>59012.43</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9741.48</v>
+        <v>654816.4399999999</v>
+      </c>
+      <c r="C14" t="n">
+        <v>649136.72</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CAPX.xlsx
+++ b/backend/src/excel_handler/files/CAPX.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,135 +439,179 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>649136.72</v>
+        <v>49975.45</v>
+      </c>
+      <c r="C2" t="n">
+        <v>49943.79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>59012.43</v>
+        <v>92655.67999999999</v>
+      </c>
+      <c r="C3" t="n">
+        <v>92648.34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49975.45</v>
+        <v>50825.22</v>
+      </c>
+      <c r="C4" t="n">
+        <v>50658.61</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92655.67999999999</v>
+        <v>22975.88</v>
+      </c>
+      <c r="C5" t="n">
+        <v>22951.24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Delta Recursos Naturales</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50825.22</v>
+        <v>63076.57</v>
+      </c>
+      <c r="C6" t="n">
+        <v>62902.29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Delta Acciones</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22975.88</v>
+        <v>42184.27</v>
+      </c>
+      <c r="C7" t="n">
+        <v>42202.12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos Naturales</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>63076.57</v>
+        <v>9677.809999999999</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9968.32</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>42184.27</v>
+        <v>181878.46</v>
+      </c>
+      <c r="C9" t="n">
+        <v>195576.51</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9677.809999999999</v>
+        <v>96412.03</v>
+      </c>
+      <c r="C10" t="n">
+        <v>101172.07</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Gainvest Renta Variable</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>181878.46</v>
+        <v>38574.04</v>
+      </c>
+      <c r="C11" t="n">
+        <v>47376.57</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>96412.03</v>
+        <v>901.3099999999999</v>
+      </c>
+      <c r="C12" t="n">
+        <v>943.59</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Gainvest Renta Variable</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38574.04</v>
+        <v>59012.43</v>
+      </c>
+      <c r="C13" t="n">
+        <v>61485.77</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>901.3099999999999</v>
+        <v>649136.72</v>
+      </c>
+      <c r="C14" t="n">
+        <v>676343.45</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CAPX.xlsx
+++ b/backend/src/excel_handler/files/CAPX.xlsx
@@ -493,9 +493,7 @@
       <c r="B5" t="n">
         <v>22975.88</v>
       </c>
-      <c r="C5" t="n">
-        <v>22951.24</v>
-      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -506,9 +504,7 @@
       <c r="B6" t="n">
         <v>63076.57</v>
       </c>
-      <c r="C6" t="n">
-        <v>62902.29</v>
-      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -519,9 +515,7 @@
       <c r="B7" t="n">
         <v>42184.27</v>
       </c>
-      <c r="C7" t="n">
-        <v>42202.12</v>
-      </c>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -532,9 +526,7 @@
       <c r="B8" t="n">
         <v>9677.809999999999</v>
       </c>
-      <c r="C8" t="n">
-        <v>9968.32</v>
-      </c>
+      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -545,9 +537,7 @@
       <c r="B9" t="n">
         <v>181878.46</v>
       </c>
-      <c r="C9" t="n">
-        <v>195576.51</v>
-      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -598,7 +588,7 @@
         <v>59012.43</v>
       </c>
       <c r="C13" t="n">
-        <v>61485.77</v>
+        <v>57123.83</v>
       </c>
     </row>
     <row r="14">
@@ -611,7 +601,7 @@
         <v>649136.72</v>
       </c>
       <c r="C14" t="n">
-        <v>676343.45</v>
+        <v>342742.97</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CAPX.xlsx
+++ b/backend/src/excel_handler/files/CAPX.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,32 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>17-02-2023</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>24-02-2023</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>03-03-2023</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>10-03-2023</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>17-03-2023</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>23-03-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -502,40 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>49975.45</v>
+        <v>12441.78</v>
       </c>
       <c r="C2" t="n">
-        <v>49943.79</v>
+        <v>12426.92</v>
       </c>
       <c r="D2" t="n">
-        <v>47531.47</v>
+        <v>12256.36</v>
       </c>
       <c r="E2" t="n">
-        <v>47776.45</v>
+        <v>12226.53</v>
       </c>
       <c r="F2" t="n">
-        <v>47286.08</v>
+        <v>12398.28</v>
       </c>
       <c r="G2" t="n">
-        <v>45105.82</v>
-      </c>
-      <c r="H2" t="n">
-        <v>45294.4</v>
-      </c>
-      <c r="I2" t="n">
-        <v>43540.17</v>
-      </c>
-      <c r="J2" t="n">
-        <v>43297.5</v>
-      </c>
-      <c r="K2" t="n">
-        <v>29119.17</v>
-      </c>
-      <c r="L2" t="n">
-        <v>12392.43</v>
-      </c>
-      <c r="M2" t="n">
-        <v>12441.78</v>
+        <v>12239.62</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>92655.67999999999</v>
+        <v>92554.78</v>
       </c>
       <c r="C3" t="n">
-        <v>92648.34</v>
+        <v>92661.56</v>
       </c>
       <c r="D3" t="n">
-        <v>92587.41</v>
+        <v>92772.08</v>
       </c>
       <c r="E3" t="n">
-        <v>92530.19</v>
+        <v>92591.33</v>
       </c>
       <c r="F3" t="n">
-        <v>92769.48</v>
+        <v>92550.64</v>
       </c>
       <c r="G3" t="n">
-        <v>92673.06</v>
-      </c>
-      <c r="H3" t="n">
-        <v>92571.14</v>
-      </c>
-      <c r="I3" t="n">
-        <v>92701.64</v>
-      </c>
-      <c r="J3" t="n">
-        <v>92789.60000000001</v>
-      </c>
-      <c r="K3" t="n">
-        <v>92757.45</v>
-      </c>
-      <c r="L3" t="n">
-        <v>92581.25</v>
-      </c>
-      <c r="M3" t="n">
-        <v>92554.78</v>
+        <v>92714.53999999999</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50825.22</v>
+        <v>51030.57</v>
       </c>
       <c r="C4" t="n">
-        <v>50658.61</v>
+        <v>50905.11</v>
       </c>
       <c r="D4" t="n">
-        <v>50792.47</v>
+        <v>51043.95</v>
       </c>
       <c r="E4" t="n">
-        <v>50982.25</v>
+        <v>51038.68</v>
       </c>
       <c r="F4" t="n">
-        <v>51060.56</v>
+        <v>51067.59</v>
       </c>
       <c r="G4" t="n">
-        <v>50798.59</v>
-      </c>
-      <c r="H4" t="n">
-        <v>51071.88</v>
-      </c>
-      <c r="I4" t="n">
-        <v>51187.36</v>
-      </c>
-      <c r="J4" t="n">
-        <v>50721.98</v>
-      </c>
-      <c r="K4" t="n">
-        <v>51037.99</v>
-      </c>
-      <c r="L4" t="n">
-        <v>50798.56</v>
-      </c>
-      <c r="M4" t="n">
-        <v>51030.57</v>
+        <v>50950.77</v>
       </c>
     </row>
     <row r="5">
@@ -631,38 +547,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22975.88</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
+        <v>23039.94</v>
+      </c>
+      <c r="C5" t="n">
+        <v>23060.93</v>
+      </c>
       <c r="D5" t="n">
-        <v>22950.86</v>
+        <v>23133.5</v>
       </c>
       <c r="E5" t="n">
-        <v>22992.95</v>
+        <v>23081.73</v>
       </c>
       <c r="F5" t="n">
-        <v>23043.83</v>
+        <v>23017.3</v>
       </c>
       <c r="G5" t="n">
-        <v>23023.97</v>
-      </c>
-      <c r="H5" t="n">
-        <v>22940.16</v>
-      </c>
-      <c r="I5" t="n">
-        <v>23071.56</v>
-      </c>
-      <c r="J5" t="n">
-        <v>22983.86</v>
-      </c>
-      <c r="K5" t="n">
-        <v>23076.38</v>
-      </c>
-      <c r="L5" t="n">
-        <v>23038.9</v>
-      </c>
-      <c r="M5" t="n">
-        <v>23039.94</v>
+        <v>22998.51</v>
       </c>
     </row>
     <row r="6">
@@ -672,38 +572,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>63076.57</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
+        <v>61500.35</v>
+      </c>
+      <c r="C6" t="n">
+        <v>61716.07</v>
+      </c>
       <c r="D6" t="n">
-        <v>61618.36</v>
+        <v>61737.96</v>
       </c>
       <c r="E6" t="n">
-        <v>61620.97</v>
+        <v>61537.67</v>
       </c>
       <c r="F6" t="n">
-        <v>61721.87</v>
+        <v>61498.94</v>
       </c>
       <c r="G6" t="n">
-        <v>61683.96</v>
-      </c>
-      <c r="H6" t="n">
-        <v>61517.8</v>
-      </c>
-      <c r="I6" t="n">
-        <v>61697.11</v>
-      </c>
-      <c r="J6" t="n">
-        <v>61581.42</v>
-      </c>
-      <c r="K6" t="n">
-        <v>61626.55</v>
-      </c>
-      <c r="L6" t="n">
-        <v>61643.88</v>
-      </c>
-      <c r="M6" t="n">
-        <v>61500.35</v>
+        <v>61751.51</v>
       </c>
     </row>
     <row r="7">
@@ -713,38 +597,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>42184.27</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
+        <v>41857.13</v>
+      </c>
+      <c r="C7" t="n">
+        <v>42061.52</v>
+      </c>
       <c r="D7" t="n">
-        <v>42318.28</v>
+        <v>42149.39</v>
       </c>
       <c r="E7" t="n">
-        <v>41751.46</v>
+        <v>41679.26</v>
       </c>
       <c r="F7" t="n">
-        <v>41708.5</v>
+        <v>42119.68</v>
       </c>
       <c r="G7" t="n">
-        <v>41667.1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>41990.55</v>
-      </c>
-      <c r="I7" t="n">
-        <v>42132.14</v>
-      </c>
-      <c r="J7" t="n">
-        <v>42321.45</v>
-      </c>
-      <c r="K7" t="n">
-        <v>41753.78</v>
-      </c>
-      <c r="L7" t="n">
-        <v>41908.02</v>
-      </c>
-      <c r="M7" t="n">
-        <v>41857.13</v>
+        <v>42129.71</v>
       </c>
     </row>
     <row r="8">
@@ -754,38 +622,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9677.809999999999</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
+        <v>10334.58</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9865.23</v>
+      </c>
       <c r="D8" t="n">
-        <v>9860.85</v>
+        <v>9937.07</v>
       </c>
       <c r="E8" t="n">
-        <v>10093.28</v>
+        <v>9906.68</v>
       </c>
       <c r="F8" t="n">
-        <v>9632.08</v>
+        <v>10080.25</v>
       </c>
       <c r="G8" t="n">
-        <v>9705.33</v>
-      </c>
-      <c r="H8" t="n">
-        <v>10165.33</v>
-      </c>
-      <c r="I8" t="n">
-        <v>10211.25</v>
-      </c>
-      <c r="J8" t="n">
-        <v>9878.549999999999</v>
-      </c>
-      <c r="K8" t="n">
-        <v>10126.36</v>
-      </c>
-      <c r="L8" t="n">
-        <v>10203.35</v>
-      </c>
-      <c r="M8" t="n">
-        <v>10334.58</v>
+        <v>9902.360000000001</v>
       </c>
     </row>
     <row r="9">
@@ -795,38 +647,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>181878.46</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
+        <v>186872.65</v>
+      </c>
+      <c r="C9" t="n">
+        <v>188029.23</v>
+      </c>
       <c r="D9" t="n">
-        <v>197720.18</v>
+        <v>188492.61</v>
       </c>
       <c r="E9" t="n">
-        <v>198224.65</v>
+        <v>188144.9</v>
       </c>
       <c r="F9" t="n">
-        <v>197560.26</v>
+        <v>189005.01</v>
       </c>
       <c r="G9" t="n">
-        <v>197890.41</v>
-      </c>
-      <c r="H9" t="n">
-        <v>197683.82</v>
-      </c>
-      <c r="I9" t="n">
-        <v>192326.78</v>
-      </c>
-      <c r="J9" t="n">
-        <v>192052.59</v>
-      </c>
-      <c r="K9" t="n">
-        <v>191960.32</v>
-      </c>
-      <c r="L9" t="n">
-        <v>192315.43</v>
-      </c>
-      <c r="M9" t="n">
-        <v>186872.65</v>
+        <v>191260.26</v>
       </c>
     </row>
     <row r="10">
@@ -836,40 +672,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>96412.03</v>
+        <v>111552.73</v>
       </c>
       <c r="C10" t="n">
-        <v>101172.07</v>
+        <v>111678.75</v>
       </c>
       <c r="D10" t="n">
-        <v>102252.35</v>
+        <v>111991.5</v>
       </c>
       <c r="E10" t="n">
-        <v>101999.06</v>
+        <v>111910.41</v>
       </c>
       <c r="F10" t="n">
-        <v>102225.03</v>
+        <v>111992.65</v>
       </c>
       <c r="G10" t="n">
-        <v>102471.4</v>
-      </c>
-      <c r="H10" t="n">
-        <v>102322.42</v>
-      </c>
-      <c r="I10" t="n">
-        <v>102344.25</v>
-      </c>
-      <c r="J10" t="n">
-        <v>111718.96</v>
-      </c>
-      <c r="K10" t="n">
-        <v>111549.48</v>
-      </c>
-      <c r="L10" t="n">
-        <v>111527.04</v>
-      </c>
-      <c r="M10" t="n">
-        <v>111552.73</v>
+        <v>109280.65</v>
       </c>
     </row>
     <row r="11">
@@ -879,40 +697,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>38574.04</v>
+        <v>47276.31</v>
       </c>
       <c r="C11" t="n">
-        <v>47376.57</v>
+        <v>47319.26</v>
       </c>
       <c r="D11" t="n">
-        <v>47383.55</v>
+        <v>47529.43</v>
       </c>
       <c r="E11" t="n">
-        <v>47262</v>
+        <v>47366.96</v>
       </c>
       <c r="F11" t="n">
-        <v>47357.9</v>
+        <v>47361.63</v>
       </c>
       <c r="G11" t="n">
-        <v>47328.41</v>
-      </c>
-      <c r="H11" t="n">
-        <v>47355.65</v>
-      </c>
-      <c r="I11" t="n">
-        <v>47347.89</v>
-      </c>
-      <c r="J11" t="n">
-        <v>47333.33</v>
-      </c>
-      <c r="K11" t="n">
-        <v>47343.65</v>
-      </c>
-      <c r="L11" t="n">
-        <v>47319.28</v>
-      </c>
-      <c r="M11" t="n">
-        <v>47276.31</v>
+        <v>47279.75</v>
       </c>
     </row>
     <row r="12">
@@ -922,40 +722,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>901.3099999999999</v>
+        <v>923.78</v>
       </c>
       <c r="C12" t="n">
-        <v>943.59</v>
+        <v>901.6900000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>1007.28</v>
+        <v>945.98</v>
       </c>
       <c r="E12" t="n">
-        <v>771.59</v>
+        <v>980.73</v>
       </c>
       <c r="F12" t="n">
-        <v>988.4400000000001</v>
+        <v>895.25</v>
       </c>
       <c r="G12" t="n">
-        <v>1006.21</v>
-      </c>
-      <c r="H12" t="n">
-        <v>985.55</v>
-      </c>
-      <c r="I12" t="n">
-        <v>872.83</v>
-      </c>
-      <c r="J12" t="n">
-        <v>863.22</v>
-      </c>
-      <c r="K12" t="n">
-        <v>826.86</v>
-      </c>
-      <c r="L12" t="n">
-        <v>909.48</v>
-      </c>
-      <c r="M12" t="n">
-        <v>923.78</v>
+        <v>916.39</v>
       </c>
     </row>
     <row r="13">
@@ -965,40 +747,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>59012.43</v>
+        <v>58125.87</v>
       </c>
       <c r="C13" t="n">
-        <v>57123.83</v>
+        <v>58238.75</v>
       </c>
       <c r="D13" t="n">
-        <v>61456.64</v>
+        <v>58362.71</v>
       </c>
       <c r="E13" t="n">
-        <v>61454.99</v>
+        <v>58224.08</v>
       </c>
       <c r="F13" t="n">
-        <v>61395.82</v>
+        <v>58362.47</v>
       </c>
       <c r="G13" t="n">
-        <v>61214.02</v>
-      </c>
-      <c r="H13" t="n">
-        <v>61263.52</v>
-      </c>
-      <c r="I13" t="n">
-        <v>60675.73</v>
-      </c>
-      <c r="J13" t="n">
-        <v>61412.95</v>
-      </c>
-      <c r="K13" t="n">
-        <v>60107.09</v>
-      </c>
-      <c r="L13" t="n">
-        <v>58603.42</v>
-      </c>
-      <c r="M13" t="n">
-        <v>58125.87</v>
+        <v>58311.28</v>
       </c>
     </row>
     <row r="14">
@@ -1008,40 +772,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>649136.72</v>
+        <v>639384.6</v>
       </c>
       <c r="C14" t="n">
-        <v>342742.97</v>
+        <v>640626.27</v>
       </c>
       <c r="D14" t="n">
-        <v>676023.0600000001</v>
+        <v>641989.83</v>
       </c>
       <c r="E14" t="n">
-        <v>676004.85</v>
+        <v>640464.88</v>
       </c>
       <c r="F14" t="n">
-        <v>675354.03</v>
+        <v>641987.22</v>
       </c>
       <c r="G14" t="n">
-        <v>673354.26</v>
-      </c>
-      <c r="H14" t="n">
-        <v>673898.7</v>
-      </c>
-      <c r="I14" t="n">
-        <v>667432.98</v>
-      </c>
-      <c r="J14" t="n">
-        <v>675542.46</v>
-      </c>
-      <c r="K14" t="n">
-        <v>661177.99</v>
-      </c>
-      <c r="L14" t="n">
-        <v>644637.62</v>
-      </c>
-      <c r="M14" t="n">
-        <v>639384.6</v>
+        <v>641424.0699999999</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CAPX.xlsx
+++ b/backend/src/excel_handler/files/CAPX.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,32 +436,62 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>23-03-2023</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>31-03-2023</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>05-04-2023</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>14-04-2023</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>21-04-2023</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -472,22 +502,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>49975.45</v>
+      </c>
+      <c r="C2" t="n">
+        <v>49943.79</v>
+      </c>
+      <c r="D2" t="n">
+        <v>47531.47</v>
+      </c>
+      <c r="E2" t="n">
+        <v>47776.45</v>
+      </c>
+      <c r="F2" t="n">
+        <v>47286.08</v>
+      </c>
+      <c r="G2" t="n">
+        <v>45105.82</v>
+      </c>
+      <c r="H2" t="n">
+        <v>45294.4</v>
+      </c>
+      <c r="I2" t="n">
+        <v>43540.17</v>
+      </c>
+      <c r="J2" t="n">
+        <v>43297.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>29119.17</v>
+      </c>
+      <c r="L2" t="n">
+        <v>12392.43</v>
+      </c>
+      <c r="M2" t="n">
         <v>12441.78</v>
-      </c>
-      <c r="C2" t="n">
-        <v>12426.92</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12256.36</v>
-      </c>
-      <c r="E2" t="n">
-        <v>12226.53</v>
-      </c>
-      <c r="F2" t="n">
-        <v>12398.28</v>
-      </c>
-      <c r="G2" t="n">
-        <v>12239.62</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +545,40 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>92655.67999999999</v>
+      </c>
+      <c r="C3" t="n">
+        <v>92648.34</v>
+      </c>
+      <c r="D3" t="n">
+        <v>92587.41</v>
+      </c>
+      <c r="E3" t="n">
+        <v>92530.19</v>
+      </c>
+      <c r="F3" t="n">
+        <v>92769.48</v>
+      </c>
+      <c r="G3" t="n">
+        <v>92673.06</v>
+      </c>
+      <c r="H3" t="n">
+        <v>92571.14</v>
+      </c>
+      <c r="I3" t="n">
+        <v>92701.64</v>
+      </c>
+      <c r="J3" t="n">
+        <v>92789.60000000001</v>
+      </c>
+      <c r="K3" t="n">
+        <v>92757.45</v>
+      </c>
+      <c r="L3" t="n">
+        <v>92581.25</v>
+      </c>
+      <c r="M3" t="n">
         <v>92554.78</v>
-      </c>
-      <c r="C3" t="n">
-        <v>92661.56</v>
-      </c>
-      <c r="D3" t="n">
-        <v>92772.08</v>
-      </c>
-      <c r="E3" t="n">
-        <v>92591.33</v>
-      </c>
-      <c r="F3" t="n">
-        <v>92550.64</v>
-      </c>
-      <c r="G3" t="n">
-        <v>92714.53999999999</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +588,40 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>50825.22</v>
+      </c>
+      <c r="C4" t="n">
+        <v>50658.61</v>
+      </c>
+      <c r="D4" t="n">
+        <v>50792.47</v>
+      </c>
+      <c r="E4" t="n">
+        <v>50982.25</v>
+      </c>
+      <c r="F4" t="n">
+        <v>51060.56</v>
+      </c>
+      <c r="G4" t="n">
+        <v>50798.59</v>
+      </c>
+      <c r="H4" t="n">
+        <v>51071.88</v>
+      </c>
+      <c r="I4" t="n">
+        <v>51187.36</v>
+      </c>
+      <c r="J4" t="n">
+        <v>50721.98</v>
+      </c>
+      <c r="K4" t="n">
+        <v>51037.99</v>
+      </c>
+      <c r="L4" t="n">
+        <v>50798.56</v>
+      </c>
+      <c r="M4" t="n">
         <v>51030.57</v>
-      </c>
-      <c r="C4" t="n">
-        <v>50905.11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>51043.95</v>
-      </c>
-      <c r="E4" t="n">
-        <v>51038.68</v>
-      </c>
-      <c r="F4" t="n">
-        <v>51067.59</v>
-      </c>
-      <c r="G4" t="n">
-        <v>50950.77</v>
       </c>
     </row>
     <row r="5">
@@ -547,22 +631,38 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>22975.88</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>22950.86</v>
+      </c>
+      <c r="E5" t="n">
+        <v>22992.95</v>
+      </c>
+      <c r="F5" t="n">
+        <v>23043.83</v>
+      </c>
+      <c r="G5" t="n">
+        <v>23023.97</v>
+      </c>
+      <c r="H5" t="n">
+        <v>22940.16</v>
+      </c>
+      <c r="I5" t="n">
+        <v>23071.56</v>
+      </c>
+      <c r="J5" t="n">
+        <v>22983.86</v>
+      </c>
+      <c r="K5" t="n">
+        <v>23076.38</v>
+      </c>
+      <c r="L5" t="n">
+        <v>23038.9</v>
+      </c>
+      <c r="M5" t="n">
         <v>23039.94</v>
-      </c>
-      <c r="C5" t="n">
-        <v>23060.93</v>
-      </c>
-      <c r="D5" t="n">
-        <v>23133.5</v>
-      </c>
-      <c r="E5" t="n">
-        <v>23081.73</v>
-      </c>
-      <c r="F5" t="n">
-        <v>23017.3</v>
-      </c>
-      <c r="G5" t="n">
-        <v>22998.51</v>
       </c>
     </row>
     <row r="6">
@@ -572,22 +672,38 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>63076.57</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>61618.36</v>
+      </c>
+      <c r="E6" t="n">
+        <v>61620.97</v>
+      </c>
+      <c r="F6" t="n">
+        <v>61721.87</v>
+      </c>
+      <c r="G6" t="n">
+        <v>61683.96</v>
+      </c>
+      <c r="H6" t="n">
+        <v>61517.8</v>
+      </c>
+      <c r="I6" t="n">
+        <v>61697.11</v>
+      </c>
+      <c r="J6" t="n">
+        <v>61581.42</v>
+      </c>
+      <c r="K6" t="n">
+        <v>61626.55</v>
+      </c>
+      <c r="L6" t="n">
+        <v>61643.88</v>
+      </c>
+      <c r="M6" t="n">
         <v>61500.35</v>
-      </c>
-      <c r="C6" t="n">
-        <v>61716.07</v>
-      </c>
-      <c r="D6" t="n">
-        <v>61737.96</v>
-      </c>
-      <c r="E6" t="n">
-        <v>61537.67</v>
-      </c>
-      <c r="F6" t="n">
-        <v>61498.94</v>
-      </c>
-      <c r="G6" t="n">
-        <v>61751.51</v>
       </c>
     </row>
     <row r="7">
@@ -597,22 +713,38 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>42184.27</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>42318.28</v>
+      </c>
+      <c r="E7" t="n">
+        <v>41751.46</v>
+      </c>
+      <c r="F7" t="n">
+        <v>41708.5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>41667.1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>41990.55</v>
+      </c>
+      <c r="I7" t="n">
+        <v>42132.14</v>
+      </c>
+      <c r="J7" t="n">
+        <v>42321.45</v>
+      </c>
+      <c r="K7" t="n">
+        <v>41753.78</v>
+      </c>
+      <c r="L7" t="n">
+        <v>41908.02</v>
+      </c>
+      <c r="M7" t="n">
         <v>41857.13</v>
-      </c>
-      <c r="C7" t="n">
-        <v>42061.52</v>
-      </c>
-      <c r="D7" t="n">
-        <v>42149.39</v>
-      </c>
-      <c r="E7" t="n">
-        <v>41679.26</v>
-      </c>
-      <c r="F7" t="n">
-        <v>42119.68</v>
-      </c>
-      <c r="G7" t="n">
-        <v>42129.71</v>
       </c>
     </row>
     <row r="8">
@@ -622,22 +754,38 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>9677.809999999999</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>9860.85</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10093.28</v>
+      </c>
+      <c r="F8" t="n">
+        <v>9632.08</v>
+      </c>
+      <c r="G8" t="n">
+        <v>9705.33</v>
+      </c>
+      <c r="H8" t="n">
+        <v>10165.33</v>
+      </c>
+      <c r="I8" t="n">
+        <v>10211.25</v>
+      </c>
+      <c r="J8" t="n">
+        <v>9878.549999999999</v>
+      </c>
+      <c r="K8" t="n">
+        <v>10126.36</v>
+      </c>
+      <c r="L8" t="n">
+        <v>10203.35</v>
+      </c>
+      <c r="M8" t="n">
         <v>10334.58</v>
-      </c>
-      <c r="C8" t="n">
-        <v>9865.23</v>
-      </c>
-      <c r="D8" t="n">
-        <v>9937.07</v>
-      </c>
-      <c r="E8" t="n">
-        <v>9906.68</v>
-      </c>
-      <c r="F8" t="n">
-        <v>10080.25</v>
-      </c>
-      <c r="G8" t="n">
-        <v>9902.360000000001</v>
       </c>
     </row>
     <row r="9">
@@ -647,22 +795,38 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>181878.46</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>197720.18</v>
+      </c>
+      <c r="E9" t="n">
+        <v>198224.65</v>
+      </c>
+      <c r="F9" t="n">
+        <v>197560.26</v>
+      </c>
+      <c r="G9" t="n">
+        <v>197890.41</v>
+      </c>
+      <c r="H9" t="n">
+        <v>197683.82</v>
+      </c>
+      <c r="I9" t="n">
+        <v>192326.78</v>
+      </c>
+      <c r="J9" t="n">
+        <v>192052.59</v>
+      </c>
+      <c r="K9" t="n">
+        <v>191960.32</v>
+      </c>
+      <c r="L9" t="n">
+        <v>192315.43</v>
+      </c>
+      <c r="M9" t="n">
         <v>186872.65</v>
-      </c>
-      <c r="C9" t="n">
-        <v>188029.23</v>
-      </c>
-      <c r="D9" t="n">
-        <v>188492.61</v>
-      </c>
-      <c r="E9" t="n">
-        <v>188144.9</v>
-      </c>
-      <c r="F9" t="n">
-        <v>189005.01</v>
-      </c>
-      <c r="G9" t="n">
-        <v>191260.26</v>
       </c>
     </row>
     <row r="10">
@@ -672,22 +836,40 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>96412.03</v>
+      </c>
+      <c r="C10" t="n">
+        <v>101172.07</v>
+      </c>
+      <c r="D10" t="n">
+        <v>102252.35</v>
+      </c>
+      <c r="E10" t="n">
+        <v>101999.06</v>
+      </c>
+      <c r="F10" t="n">
+        <v>102225.03</v>
+      </c>
+      <c r="G10" t="n">
+        <v>102471.4</v>
+      </c>
+      <c r="H10" t="n">
+        <v>102322.42</v>
+      </c>
+      <c r="I10" t="n">
+        <v>102344.25</v>
+      </c>
+      <c r="J10" t="n">
+        <v>111718.96</v>
+      </c>
+      <c r="K10" t="n">
+        <v>111549.48</v>
+      </c>
+      <c r="L10" t="n">
+        <v>111527.04</v>
+      </c>
+      <c r="M10" t="n">
         <v>111552.73</v>
-      </c>
-      <c r="C10" t="n">
-        <v>111678.75</v>
-      </c>
-      <c r="D10" t="n">
-        <v>111991.5</v>
-      </c>
-      <c r="E10" t="n">
-        <v>111910.41</v>
-      </c>
-      <c r="F10" t="n">
-        <v>111992.65</v>
-      </c>
-      <c r="G10" t="n">
-        <v>109280.65</v>
       </c>
     </row>
     <row r="11">
@@ -697,22 +879,40 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>38574.04</v>
+      </c>
+      <c r="C11" t="n">
+        <v>47376.57</v>
+      </c>
+      <c r="D11" t="n">
+        <v>47383.55</v>
+      </c>
+      <c r="E11" t="n">
+        <v>47262</v>
+      </c>
+      <c r="F11" t="n">
+        <v>47357.9</v>
+      </c>
+      <c r="G11" t="n">
+        <v>47328.41</v>
+      </c>
+      <c r="H11" t="n">
+        <v>47355.65</v>
+      </c>
+      <c r="I11" t="n">
+        <v>47347.89</v>
+      </c>
+      <c r="J11" t="n">
+        <v>47333.33</v>
+      </c>
+      <c r="K11" t="n">
+        <v>47343.65</v>
+      </c>
+      <c r="L11" t="n">
+        <v>47319.28</v>
+      </c>
+      <c r="M11" t="n">
         <v>47276.31</v>
-      </c>
-      <c r="C11" t="n">
-        <v>47319.26</v>
-      </c>
-      <c r="D11" t="n">
-        <v>47529.43</v>
-      </c>
-      <c r="E11" t="n">
-        <v>47366.96</v>
-      </c>
-      <c r="F11" t="n">
-        <v>47361.63</v>
-      </c>
-      <c r="G11" t="n">
-        <v>47279.75</v>
       </c>
     </row>
     <row r="12">
@@ -722,22 +922,40 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>901.3099999999999</v>
+      </c>
+      <c r="C12" t="n">
+        <v>943.59</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1007.28</v>
+      </c>
+      <c r="E12" t="n">
+        <v>771.59</v>
+      </c>
+      <c r="F12" t="n">
+        <v>988.4400000000001</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1006.21</v>
+      </c>
+      <c r="H12" t="n">
+        <v>985.55</v>
+      </c>
+      <c r="I12" t="n">
+        <v>872.83</v>
+      </c>
+      <c r="J12" t="n">
+        <v>863.22</v>
+      </c>
+      <c r="K12" t="n">
+        <v>826.86</v>
+      </c>
+      <c r="L12" t="n">
+        <v>909.48</v>
+      </c>
+      <c r="M12" t="n">
         <v>923.78</v>
-      </c>
-      <c r="C12" t="n">
-        <v>901.6900000000001</v>
-      </c>
-      <c r="D12" t="n">
-        <v>945.98</v>
-      </c>
-      <c r="E12" t="n">
-        <v>980.73</v>
-      </c>
-      <c r="F12" t="n">
-        <v>895.25</v>
-      </c>
-      <c r="G12" t="n">
-        <v>916.39</v>
       </c>
     </row>
     <row r="13">
@@ -747,22 +965,40 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>59012.43</v>
+      </c>
+      <c r="C13" t="n">
+        <v>57123.83</v>
+      </c>
+      <c r="D13" t="n">
+        <v>61456.64</v>
+      </c>
+      <c r="E13" t="n">
+        <v>61454.99</v>
+      </c>
+      <c r="F13" t="n">
+        <v>61395.82</v>
+      </c>
+      <c r="G13" t="n">
+        <v>61214.02</v>
+      </c>
+      <c r="H13" t="n">
+        <v>61263.52</v>
+      </c>
+      <c r="I13" t="n">
+        <v>60675.73</v>
+      </c>
+      <c r="J13" t="n">
+        <v>61412.95</v>
+      </c>
+      <c r="K13" t="n">
+        <v>60107.09</v>
+      </c>
+      <c r="L13" t="n">
+        <v>58603.42</v>
+      </c>
+      <c r="M13" t="n">
         <v>58125.87</v>
-      </c>
-      <c r="C13" t="n">
-        <v>58238.75</v>
-      </c>
-      <c r="D13" t="n">
-        <v>58362.71</v>
-      </c>
-      <c r="E13" t="n">
-        <v>58224.08</v>
-      </c>
-      <c r="F13" t="n">
-        <v>58362.47</v>
-      </c>
-      <c r="G13" t="n">
-        <v>58311.28</v>
       </c>
     </row>
     <row r="14">
@@ -772,22 +1008,40 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>649136.72</v>
+      </c>
+      <c r="C14" t="n">
+        <v>342742.97</v>
+      </c>
+      <c r="D14" t="n">
+        <v>676023.0600000001</v>
+      </c>
+      <c r="E14" t="n">
+        <v>676004.85</v>
+      </c>
+      <c r="F14" t="n">
+        <v>675354.03</v>
+      </c>
+      <c r="G14" t="n">
+        <v>673354.26</v>
+      </c>
+      <c r="H14" t="n">
+        <v>673898.7</v>
+      </c>
+      <c r="I14" t="n">
+        <v>667432.98</v>
+      </c>
+      <c r="J14" t="n">
+        <v>675542.46</v>
+      </c>
+      <c r="K14" t="n">
+        <v>661177.99</v>
+      </c>
+      <c r="L14" t="n">
+        <v>644637.62</v>
+      </c>
+      <c r="M14" t="n">
         <v>639384.6</v>
-      </c>
-      <c r="C14" t="n">
-        <v>640626.27</v>
-      </c>
-      <c r="D14" t="n">
-        <v>641989.83</v>
-      </c>
-      <c r="E14" t="n">
-        <v>640464.88</v>
-      </c>
-      <c r="F14" t="n">
-        <v>641987.22</v>
-      </c>
-      <c r="G14" t="n">
-        <v>641424.0699999999</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CAPX.xlsx
+++ b/backend/src/excel_handler/files/CAPX.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:AA14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,132 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>17-02-2023</t>
+          <t>05-05-2023</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>24-02-2023</t>
+          <t>12-05-2023</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>03-03-2023</t>
+          <t>19-05-2023</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>10-03-2023</t>
+          <t>24-05-2023</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>17-03-2023</t>
+          <t>02-06-2023</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>23-03-2023</t>
+          <t>09-06-2023</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>16-06-2023</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>23-06-2023</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>30-06-2023</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>14-07-2023</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>21-07-2023</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>28-07-2023</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>04-08-2023</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>11-08-2023</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>18-08-2023</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>25-08-2023</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>01-09-2023</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>08-09-2023</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>22-09-2023</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>29-09-2023</t>
         </is>
       </c>
     </row>
@@ -502,40 +572,82 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>49975.45</v>
+        <v>12441.78</v>
       </c>
       <c r="C2" t="n">
-        <v>49943.79</v>
+        <v>12426.92</v>
       </c>
       <c r="D2" t="n">
-        <v>47531.47</v>
+        <v>12256.36</v>
       </c>
       <c r="E2" t="n">
-        <v>47776.45</v>
+        <v>12226.53</v>
       </c>
       <c r="F2" t="n">
-        <v>47286.08</v>
+        <v>12398.28</v>
       </c>
       <c r="G2" t="n">
-        <v>45105.82</v>
+        <v>12239.62</v>
       </c>
       <c r="H2" t="n">
-        <v>45294.4</v>
+        <v>12433.96</v>
       </c>
       <c r="I2" t="n">
-        <v>43540.17</v>
+        <v>12217.14</v>
       </c>
       <c r="J2" t="n">
-        <v>43297.5</v>
+        <v>12428.07</v>
       </c>
       <c r="K2" t="n">
-        <v>29119.17</v>
+        <v>12306.67</v>
       </c>
       <c r="L2" t="n">
-        <v>12392.43</v>
+        <v>12462.77</v>
       </c>
       <c r="M2" t="n">
-        <v>12441.78</v>
+        <v>12329.19</v>
+      </c>
+      <c r="N2" t="n">
+        <v>12193.57</v>
+      </c>
+      <c r="O2" t="n">
+        <v>12392.5</v>
+      </c>
+      <c r="P2" t="n">
+        <v>12171.21</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>12122.83</v>
+      </c>
+      <c r="R2" t="n">
+        <v>12327.9</v>
+      </c>
+      <c r="S2" t="n">
+        <v>12237.15</v>
+      </c>
+      <c r="T2" t="n">
+        <v>12360.77</v>
+      </c>
+      <c r="U2" t="n">
+        <v>12226.48</v>
+      </c>
+      <c r="V2" t="n">
+        <v>12178.33</v>
+      </c>
+      <c r="W2" t="n">
+        <v>12265.94</v>
+      </c>
+      <c r="X2" t="n">
+        <v>12362.07</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>11766.3</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>818.25</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>679.53</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +657,82 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>92655.67999999999</v>
+        <v>92554.78</v>
       </c>
       <c r="C3" t="n">
-        <v>92648.34</v>
+        <v>92661.56</v>
       </c>
       <c r="D3" t="n">
-        <v>92587.41</v>
+        <v>92772.08</v>
       </c>
       <c r="E3" t="n">
-        <v>92530.19</v>
+        <v>92591.33</v>
       </c>
       <c r="F3" t="n">
-        <v>92769.48</v>
+        <v>92550.64</v>
       </c>
       <c r="G3" t="n">
-        <v>92673.06</v>
+        <v>92714.53999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>92571.14</v>
+        <v>92683.64999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>92701.64</v>
+        <v>92651.78</v>
       </c>
       <c r="J3" t="n">
-        <v>92789.60000000001</v>
+        <v>92766.92999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>92757.45</v>
+        <v>92705.57000000001</v>
       </c>
       <c r="L3" t="n">
-        <v>92581.25</v>
+        <v>92590.06</v>
       </c>
       <c r="M3" t="n">
-        <v>92554.78</v>
+        <v>92584.5</v>
+      </c>
+      <c r="N3" t="n">
+        <v>92541.28</v>
+      </c>
+      <c r="O3" t="n">
+        <v>92610.50999999999</v>
+      </c>
+      <c r="P3" t="n">
+        <v>92645.75999999999</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>92727.34</v>
+      </c>
+      <c r="R3" t="n">
+        <v>92767.21000000001</v>
+      </c>
+      <c r="S3" t="n">
+        <v>92637.82000000001</v>
+      </c>
+      <c r="T3" t="n">
+        <v>92682.88</v>
+      </c>
+      <c r="U3" t="n">
+        <v>92622.32000000001</v>
+      </c>
+      <c r="V3" t="n">
+        <v>92548.46000000001</v>
+      </c>
+      <c r="W3" t="n">
+        <v>92565.13</v>
+      </c>
+      <c r="X3" t="n">
+        <v>92728.24000000001</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>92595.75</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>91706.28</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>79277.96000000001</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +742,82 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50825.22</v>
+        <v>51030.57</v>
       </c>
       <c r="C4" t="n">
-        <v>50658.61</v>
+        <v>50905.11</v>
       </c>
       <c r="D4" t="n">
-        <v>50792.47</v>
+        <v>51043.95</v>
       </c>
       <c r="E4" t="n">
-        <v>50982.25</v>
+        <v>51038.68</v>
       </c>
       <c r="F4" t="n">
-        <v>51060.56</v>
+        <v>51067.59</v>
       </c>
       <c r="G4" t="n">
-        <v>50798.59</v>
+        <v>50950.77</v>
       </c>
       <c r="H4" t="n">
-        <v>51071.88</v>
+        <v>50781.79</v>
       </c>
       <c r="I4" t="n">
-        <v>51187.36</v>
+        <v>50898.73</v>
       </c>
       <c r="J4" t="n">
-        <v>50721.98</v>
+        <v>50829.29</v>
       </c>
       <c r="K4" t="n">
-        <v>51037.99</v>
+        <v>50931.43</v>
       </c>
       <c r="L4" t="n">
-        <v>50798.56</v>
+        <v>50974.02</v>
       </c>
       <c r="M4" t="n">
-        <v>51030.57</v>
+        <v>50717.56</v>
+      </c>
+      <c r="N4" t="n">
+        <v>51022.04</v>
+      </c>
+      <c r="O4" t="n">
+        <v>50927.81</v>
+      </c>
+      <c r="P4" t="n">
+        <v>50683.04</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>50925.45</v>
+      </c>
+      <c r="R4" t="n">
+        <v>51071.06</v>
+      </c>
+      <c r="S4" t="n">
+        <v>50816.58</v>
+      </c>
+      <c r="T4" t="n">
+        <v>51065.19</v>
+      </c>
+      <c r="U4" t="n">
+        <v>50830.33</v>
+      </c>
+      <c r="V4" t="n">
+        <v>50996.4</v>
+      </c>
+      <c r="W4" t="n">
+        <v>50905.05</v>
+      </c>
+      <c r="X4" t="n">
+        <v>50844.42</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>50834.32</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>50974.5</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>50911.47</v>
       </c>
     </row>
     <row r="5">
@@ -631,38 +827,82 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22975.88</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
+        <v>23039.94</v>
+      </c>
+      <c r="C5" t="n">
+        <v>23060.93</v>
+      </c>
       <c r="D5" t="n">
-        <v>22950.86</v>
+        <v>23133.5</v>
       </c>
       <c r="E5" t="n">
-        <v>22992.95</v>
+        <v>23081.73</v>
       </c>
       <c r="F5" t="n">
-        <v>23043.83</v>
+        <v>23017.3</v>
       </c>
       <c r="G5" t="n">
-        <v>23023.97</v>
+        <v>22998.51</v>
       </c>
       <c r="H5" t="n">
-        <v>22940.16</v>
+        <v>23055.93</v>
       </c>
       <c r="I5" t="n">
-        <v>23071.56</v>
+        <v>22979.75</v>
       </c>
       <c r="J5" t="n">
-        <v>22983.86</v>
+        <v>22987.55</v>
       </c>
       <c r="K5" t="n">
-        <v>23076.38</v>
+        <v>23000.32</v>
       </c>
       <c r="L5" t="n">
-        <v>23038.9</v>
+        <v>23054.43</v>
       </c>
       <c r="M5" t="n">
-        <v>23039.94</v>
+        <v>22951.46</v>
+      </c>
+      <c r="N5" t="n">
+        <v>22955.95</v>
+      </c>
+      <c r="O5" t="n">
+        <v>22981.63</v>
+      </c>
+      <c r="P5" t="n">
+        <v>23005.4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>23019.96</v>
+      </c>
+      <c r="R5" t="n">
+        <v>23002.29</v>
+      </c>
+      <c r="S5" t="n">
+        <v>22997.7</v>
+      </c>
+      <c r="T5" t="n">
+        <v>23017.94</v>
+      </c>
+      <c r="U5" t="n">
+        <v>22994.99</v>
+      </c>
+      <c r="V5" t="n">
+        <v>23020.69</v>
+      </c>
+      <c r="W5" t="n">
+        <v>22998.02</v>
+      </c>
+      <c r="X5" t="n">
+        <v>23000.57</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>23023.82</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>18138.83</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>18144.65</v>
       </c>
     </row>
     <row r="6">
@@ -672,38 +912,82 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>63076.57</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
+        <v>61500.35</v>
+      </c>
+      <c r="C6" t="n">
+        <v>61716.07</v>
+      </c>
       <c r="D6" t="n">
-        <v>61618.36</v>
+        <v>61737.96</v>
       </c>
       <c r="E6" t="n">
-        <v>61620.97</v>
+        <v>61537.67</v>
       </c>
       <c r="F6" t="n">
-        <v>61721.87</v>
+        <v>61498.94</v>
       </c>
       <c r="G6" t="n">
-        <v>61683.96</v>
+        <v>61751.51</v>
       </c>
       <c r="H6" t="n">
-        <v>61517.8</v>
+        <v>61670.33</v>
       </c>
       <c r="I6" t="n">
-        <v>61697.11</v>
+        <v>61575.66</v>
       </c>
       <c r="J6" t="n">
-        <v>61581.42</v>
+        <v>61588.91</v>
       </c>
       <c r="K6" t="n">
-        <v>61626.55</v>
+        <v>61641.09</v>
       </c>
       <c r="L6" t="n">
-        <v>61643.88</v>
+        <v>61750.26</v>
       </c>
       <c r="M6" t="n">
-        <v>61500.35</v>
+        <v>61572.37</v>
+      </c>
+      <c r="N6" t="n">
+        <v>61515.63</v>
+      </c>
+      <c r="O6" t="n">
+        <v>61596.21</v>
+      </c>
+      <c r="P6" t="n">
+        <v>61752.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>61660.53</v>
+      </c>
+      <c r="R6" t="n">
+        <v>61666.35</v>
+      </c>
+      <c r="S6" t="n">
+        <v>61583.91</v>
+      </c>
+      <c r="T6" t="n">
+        <v>61659.73</v>
+      </c>
+      <c r="U6" t="n">
+        <v>61671.61</v>
+      </c>
+      <c r="V6" t="n">
+        <v>61640.58</v>
+      </c>
+      <c r="W6" t="n">
+        <v>61613.46</v>
+      </c>
+      <c r="X6" t="n">
+        <v>61629.49</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>61638.4</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>66486.55</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>66436.75</v>
       </c>
     </row>
     <row r="7">
@@ -713,38 +997,82 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>42184.27</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
+        <v>41857.13</v>
+      </c>
+      <c r="C7" t="n">
+        <v>42061.52</v>
+      </c>
       <c r="D7" t="n">
-        <v>42318.28</v>
+        <v>42149.39</v>
       </c>
       <c r="E7" t="n">
-        <v>41751.46</v>
+        <v>41679.26</v>
       </c>
       <c r="F7" t="n">
-        <v>41708.5</v>
+        <v>42119.68</v>
       </c>
       <c r="G7" t="n">
-        <v>41667.1</v>
+        <v>42129.71</v>
       </c>
       <c r="H7" t="n">
-        <v>41990.55</v>
+        <v>42015.15</v>
       </c>
       <c r="I7" t="n">
-        <v>42132.14</v>
+        <v>41810.94</v>
       </c>
       <c r="J7" t="n">
-        <v>42321.45</v>
+        <v>41782.38</v>
       </c>
       <c r="K7" t="n">
-        <v>41753.78</v>
+        <v>42140.91</v>
       </c>
       <c r="L7" t="n">
-        <v>41908.02</v>
+        <v>42039.69</v>
       </c>
       <c r="M7" t="n">
-        <v>41857.13</v>
+        <v>41999.52</v>
+      </c>
+      <c r="N7" t="n">
+        <v>42165.35</v>
+      </c>
+      <c r="O7" t="n">
+        <v>42129.04</v>
+      </c>
+      <c r="P7" t="n">
+        <v>42123.42</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>42138.1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>41806.65</v>
+      </c>
+      <c r="S7" t="n">
+        <v>42059.09</v>
+      </c>
+      <c r="T7" t="n">
+        <v>41958.14</v>
+      </c>
+      <c r="U7" t="n">
+        <v>42125.04</v>
+      </c>
+      <c r="V7" t="n">
+        <v>42113.9</v>
+      </c>
+      <c r="W7" t="n">
+        <v>41941.33</v>
+      </c>
+      <c r="X7" t="n">
+        <v>41809.66</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>41846.38</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>41989.59</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>42047.14</v>
       </c>
     </row>
     <row r="8">
@@ -754,38 +1082,82 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9677.809999999999</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
+        <v>10334.58</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9865.23</v>
+      </c>
       <c r="D8" t="n">
-        <v>9860.85</v>
+        <v>9937.07</v>
       </c>
       <c r="E8" t="n">
-        <v>10093.28</v>
+        <v>9906.68</v>
       </c>
       <c r="F8" t="n">
-        <v>9632.08</v>
+        <v>10080.25</v>
       </c>
       <c r="G8" t="n">
-        <v>9705.33</v>
+        <v>9902.360000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>10165.33</v>
+        <v>9743.889999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>10211.25</v>
+        <v>9951.790000000001</v>
       </c>
       <c r="J8" t="n">
-        <v>9878.549999999999</v>
+        <v>10081.37</v>
       </c>
       <c r="K8" t="n">
-        <v>10126.36</v>
+        <v>9945.98</v>
       </c>
       <c r="L8" t="n">
-        <v>10203.35</v>
+        <v>9989.15</v>
       </c>
       <c r="M8" t="n">
-        <v>10334.58</v>
+        <v>9877.280000000001</v>
+      </c>
+      <c r="N8" t="n">
+        <v>10229.23</v>
+      </c>
+      <c r="O8" t="n">
+        <v>10037.92</v>
+      </c>
+      <c r="P8" t="n">
+        <v>9965.66</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>10016.3</v>
+      </c>
+      <c r="R8" t="n">
+        <v>10166.54</v>
+      </c>
+      <c r="S8" t="n">
+        <v>10053.43</v>
+      </c>
+      <c r="T8" t="n">
+        <v>9985.219999999999</v>
+      </c>
+      <c r="U8" t="n">
+        <v>10101.89</v>
+      </c>
+      <c r="V8" t="n">
+        <v>9905.76</v>
+      </c>
+      <c r="W8" t="n">
+        <v>9960.43</v>
+      </c>
+      <c r="X8" t="n">
+        <v>9939.24</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>10086.14</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>9997.790000000001</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>10001.9</v>
       </c>
     </row>
     <row r="9">
@@ -795,38 +1167,82 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>181878.46</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
+        <v>186872.65</v>
+      </c>
+      <c r="C9" t="n">
+        <v>188029.23</v>
+      </c>
       <c r="D9" t="n">
-        <v>197720.18</v>
+        <v>188492.61</v>
       </c>
       <c r="E9" t="n">
-        <v>198224.65</v>
+        <v>188144.9</v>
       </c>
       <c r="F9" t="n">
-        <v>197560.26</v>
+        <v>189005.01</v>
       </c>
       <c r="G9" t="n">
-        <v>197890.41</v>
+        <v>191260.26</v>
       </c>
       <c r="H9" t="n">
-        <v>197683.82</v>
+        <v>191264.15</v>
       </c>
       <c r="I9" t="n">
-        <v>192326.78</v>
+        <v>194057.19</v>
       </c>
       <c r="J9" t="n">
-        <v>192052.59</v>
+        <v>194984.04</v>
       </c>
       <c r="K9" t="n">
-        <v>191960.32</v>
+        <v>197482.07</v>
       </c>
       <c r="L9" t="n">
-        <v>192315.43</v>
+        <v>198460.02</v>
       </c>
       <c r="M9" t="n">
-        <v>186872.65</v>
+        <v>200225.94</v>
+      </c>
+      <c r="N9" t="n">
+        <v>202458.31</v>
+      </c>
+      <c r="O9" t="n">
+        <v>202095.57</v>
+      </c>
+      <c r="P9" t="n">
+        <v>203289.43</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>203951.54</v>
+      </c>
+      <c r="R9" t="n">
+        <v>205951.06</v>
+      </c>
+      <c r="S9" t="n">
+        <v>209787.16</v>
+      </c>
+      <c r="T9" t="n">
+        <v>209940.88</v>
+      </c>
+      <c r="U9" t="n">
+        <v>209356.61</v>
+      </c>
+      <c r="V9" t="n">
+        <v>213248.37</v>
+      </c>
+      <c r="W9" t="n">
+        <v>199017.63</v>
+      </c>
+      <c r="X9" t="n">
+        <v>216308.19</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>217174.74</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>218300.39</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>212380.14</v>
       </c>
     </row>
     <row r="10">
@@ -836,40 +1252,82 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>96412.03</v>
+        <v>111552.73</v>
       </c>
       <c r="C10" t="n">
-        <v>101172.07</v>
+        <v>111678.75</v>
       </c>
       <c r="D10" t="n">
-        <v>102252.35</v>
+        <v>111991.5</v>
       </c>
       <c r="E10" t="n">
-        <v>101999.06</v>
+        <v>111910.41</v>
       </c>
       <c r="F10" t="n">
-        <v>102225.03</v>
+        <v>111992.65</v>
       </c>
       <c r="G10" t="n">
-        <v>102471.4</v>
+        <v>109280.65</v>
       </c>
       <c r="H10" t="n">
-        <v>102322.42</v>
+        <v>109187.27</v>
       </c>
       <c r="I10" t="n">
-        <v>102344.25</v>
+        <v>111241.12</v>
       </c>
       <c r="J10" t="n">
-        <v>111718.96</v>
+        <v>112471.77</v>
       </c>
       <c r="K10" t="n">
-        <v>111549.48</v>
+        <v>112245.66</v>
       </c>
       <c r="L10" t="n">
-        <v>111527.04</v>
+        <v>112442.35</v>
       </c>
       <c r="M10" t="n">
-        <v>111552.73</v>
+        <v>112127.14</v>
+      </c>
+      <c r="N10" t="n">
+        <v>112359.57</v>
+      </c>
+      <c r="O10" t="n">
+        <v>112512.43</v>
+      </c>
+      <c r="P10" t="n">
+        <v>114574.36</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>115768.33</v>
+      </c>
+      <c r="R10" t="n">
+        <v>116691.25</v>
+      </c>
+      <c r="S10" t="n">
+        <v>116897.6</v>
+      </c>
+      <c r="T10" t="n">
+        <v>119228.43</v>
+      </c>
+      <c r="U10" t="n">
+        <v>119204.55</v>
+      </c>
+      <c r="V10" t="n">
+        <v>119614.6</v>
+      </c>
+      <c r="W10" t="n">
+        <v>111637.35</v>
+      </c>
+      <c r="X10" t="n">
+        <v>120812.74</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>122643.66</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>123490.24</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>123630.92</v>
       </c>
     </row>
     <row r="11">
@@ -879,40 +1337,82 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>38574.04</v>
+        <v>47276.31</v>
       </c>
       <c r="C11" t="n">
-        <v>47376.57</v>
+        <v>47319.26</v>
       </c>
       <c r="D11" t="n">
-        <v>47383.55</v>
+        <v>47529.43</v>
       </c>
       <c r="E11" t="n">
-        <v>47262</v>
+        <v>47366.96</v>
       </c>
       <c r="F11" t="n">
-        <v>47357.9</v>
+        <v>47361.63</v>
       </c>
       <c r="G11" t="n">
-        <v>47328.41</v>
+        <v>47279.75</v>
       </c>
       <c r="H11" t="n">
-        <v>47355.65</v>
+        <v>47286.64</v>
       </c>
       <c r="I11" t="n">
-        <v>47347.89</v>
+        <v>47318.79</v>
       </c>
       <c r="J11" t="n">
-        <v>47333.33</v>
+        <v>47274.85</v>
       </c>
       <c r="K11" t="n">
-        <v>47343.65</v>
+        <v>47397.3</v>
       </c>
       <c r="L11" t="n">
-        <v>47319.28</v>
+        <v>47354.01</v>
       </c>
       <c r="M11" t="n">
-        <v>47276.31</v>
+        <v>47367.14</v>
+      </c>
+      <c r="N11" t="n">
+        <v>47280.1</v>
+      </c>
+      <c r="O11" t="n">
+        <v>47350.02</v>
+      </c>
+      <c r="P11" t="n">
+        <v>47331.52</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>47346.32</v>
+      </c>
+      <c r="R11" t="n">
+        <v>47363.49</v>
+      </c>
+      <c r="S11" t="n">
+        <v>47367.71</v>
+      </c>
+      <c r="T11" t="n">
+        <v>47321.62</v>
+      </c>
+      <c r="U11" t="n">
+        <v>47355.56</v>
+      </c>
+      <c r="V11" t="n">
+        <v>47342.18</v>
+      </c>
+      <c r="W11" t="n">
+        <v>47299.59</v>
+      </c>
+      <c r="X11" t="n">
+        <v>47349.5</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>47337.92</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>47337.52</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>47349.76</v>
       </c>
     </row>
     <row r="12">
@@ -922,40 +1422,82 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>901.3099999999999</v>
+        <v>923.78</v>
       </c>
       <c r="C12" t="n">
-        <v>943.59</v>
+        <v>901.6900000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>1007.28</v>
+        <v>945.98</v>
       </c>
       <c r="E12" t="n">
-        <v>771.59</v>
+        <v>980.73</v>
       </c>
       <c r="F12" t="n">
-        <v>988.4400000000001</v>
+        <v>895.25</v>
       </c>
       <c r="G12" t="n">
-        <v>1006.21</v>
+        <v>916.39</v>
       </c>
       <c r="H12" t="n">
-        <v>985.55</v>
+        <v>880.01</v>
       </c>
       <c r="I12" t="n">
-        <v>872.83</v>
+        <v>938.62</v>
       </c>
       <c r="J12" t="n">
-        <v>863.22</v>
+        <v>867.98</v>
       </c>
       <c r="K12" t="n">
-        <v>826.86</v>
+        <v>866.76</v>
       </c>
       <c r="L12" t="n">
-        <v>909.48</v>
+        <v>890.97</v>
       </c>
       <c r="M12" t="n">
-        <v>923.78</v>
+        <v>955.15</v>
+      </c>
+      <c r="N12" t="n">
+        <v>841.23</v>
+      </c>
+      <c r="O12" t="n">
+        <v>915.03</v>
+      </c>
+      <c r="P12" t="n">
+        <v>870.02</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>837.08</v>
+      </c>
+      <c r="R12" t="n">
+        <v>881.6799999999999</v>
+      </c>
+      <c r="S12" t="n">
+        <v>938.4299999999999</v>
+      </c>
+      <c r="T12" t="n">
+        <v>872.16</v>
+      </c>
+      <c r="U12" t="n">
+        <v>948.1900000000001</v>
+      </c>
+      <c r="V12" t="n">
+        <v>930.38</v>
+      </c>
+      <c r="W12" t="n">
+        <v>866.51</v>
+      </c>
+      <c r="X12" t="n">
+        <v>920.24</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>852.49</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>902.12</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>900.23</v>
       </c>
     </row>
     <row r="13">
@@ -965,40 +1507,82 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>59012.43</v>
+        <v>58125.87</v>
       </c>
       <c r="C13" t="n">
-        <v>57123.83</v>
+        <v>58238.75</v>
       </c>
       <c r="D13" t="n">
-        <v>61456.64</v>
+        <v>58362.71</v>
       </c>
       <c r="E13" t="n">
-        <v>61454.99</v>
+        <v>58224.08</v>
       </c>
       <c r="F13" t="n">
-        <v>61395.82</v>
+        <v>58362.47</v>
       </c>
       <c r="G13" t="n">
-        <v>61214.02</v>
+        <v>58311.28</v>
       </c>
       <c r="H13" t="n">
-        <v>61263.52</v>
+        <v>58272.98</v>
       </c>
       <c r="I13" t="n">
-        <v>60675.73</v>
+        <v>58694.68</v>
       </c>
       <c r="J13" t="n">
-        <v>61412.95</v>
+        <v>58914.83</v>
       </c>
       <c r="K13" t="n">
-        <v>60107.09</v>
+        <v>59151.25</v>
       </c>
       <c r="L13" t="n">
-        <v>58603.42</v>
+        <v>59273.43</v>
       </c>
       <c r="M13" t="n">
-        <v>58125.87</v>
+        <v>59337.02</v>
+      </c>
+      <c r="N13" t="n">
+        <v>59596.57</v>
+      </c>
+      <c r="O13" t="n">
+        <v>59595.33</v>
+      </c>
+      <c r="P13" t="n">
+        <v>59855.67</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>60046.71</v>
+      </c>
+      <c r="R13" t="n">
+        <v>60335.95</v>
+      </c>
+      <c r="S13" t="n">
+        <v>60670.6</v>
+      </c>
+      <c r="T13" t="n">
+        <v>60917.54</v>
+      </c>
+      <c r="U13" t="n">
+        <v>60857.96</v>
+      </c>
+      <c r="V13" t="n">
+        <v>61230.88</v>
+      </c>
+      <c r="W13" t="n">
+        <v>59188.22</v>
+      </c>
+      <c r="X13" t="n">
+        <v>61609.49</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>61799.99</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>60922.01</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>59250.95</v>
       </c>
     </row>
     <row r="14">
@@ -1008,40 +1592,82 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>649136.72</v>
+        <v>639384.6</v>
       </c>
       <c r="C14" t="n">
-        <v>342742.97</v>
+        <v>640626.27</v>
       </c>
       <c r="D14" t="n">
-        <v>676023.0600000001</v>
+        <v>641989.83</v>
       </c>
       <c r="E14" t="n">
-        <v>676004.85</v>
+        <v>640464.88</v>
       </c>
       <c r="F14" t="n">
-        <v>675354.03</v>
+        <v>641987.22</v>
       </c>
       <c r="G14" t="n">
-        <v>673354.26</v>
+        <v>641424.0699999999</v>
       </c>
       <c r="H14" t="n">
-        <v>673898.7</v>
+        <v>641002.77</v>
       </c>
       <c r="I14" t="n">
-        <v>667432.98</v>
+        <v>645641.51</v>
       </c>
       <c r="J14" t="n">
-        <v>675542.46</v>
+        <v>648063.14</v>
       </c>
       <c r="K14" t="n">
-        <v>661177.99</v>
+        <v>650663.76</v>
       </c>
       <c r="L14" t="n">
-        <v>644637.62</v>
+        <v>652007.73</v>
       </c>
       <c r="M14" t="n">
-        <v>639384.6</v>
+        <v>652707.25</v>
+      </c>
+      <c r="N14" t="n">
+        <v>655562.26</v>
+      </c>
+      <c r="O14" t="n">
+        <v>655548.67</v>
+      </c>
+      <c r="P14" t="n">
+        <v>658412.3199999999</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>660513.78</v>
+      </c>
+      <c r="R14" t="n">
+        <v>663695.48</v>
+      </c>
+      <c r="S14" t="n">
+        <v>667376.58</v>
+      </c>
+      <c r="T14" t="n">
+        <v>670092.96</v>
+      </c>
+      <c r="U14" t="n">
+        <v>669437.5699999999</v>
+      </c>
+      <c r="V14" t="n">
+        <v>673539.65</v>
+      </c>
+      <c r="W14" t="n">
+        <v>651070.4399999999</v>
+      </c>
+      <c r="X14" t="n">
+        <v>677704.36</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>679799.92</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>670142.0600000001</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>651760.45</v>
       </c>
     </row>
   </sheetData>
